--- a/data/Saslaw_et_al_2024.xlsx
+++ b/data/Saslaw_et_al_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ydmag\Google Drive\AMNH\Turkana Water\TurkanaWatersBM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E0C47E-82CC-4C33-A366-4A31C94F4B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D324AC7C-DA86-48F9-AE23-56972B5479BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2CB7BEBC-1D16-D04D-9FBD-10B6CFE25871}"/>
+    <workbookView xWindow="28680" yWindow="-10605" windowWidth="29040" windowHeight="17640" xr2:uid="{2CB7BEBC-1D16-D04D-9FBD-10B6CFE25871}"/>
   </bookViews>
   <sheets>
     <sheet name="TableS1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="280">
   <si>
     <t>Date</t>
   </si>
@@ -886,6 +886,18 @@
   <si>
     <t>d_excess</t>
   </si>
+  <si>
+    <t>9/1975</t>
+  </si>
+  <si>
+    <t>3/1977</t>
+  </si>
+  <si>
+    <t>8/1980</t>
+  </si>
+  <si>
+    <t>Cerling et al. 1988</t>
+  </si>
 </sst>
 </file>
 
@@ -896,9 +908,16 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1065,6 +1084,12 @@
       <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1373,97 +1398,106 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="15" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1501,6 +1535,7 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="42" xr:uid="{0D4B52D1-48CA-4B9E-89E9-6E9C21689A45}"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -1981,8 +2016,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J134" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
-  <autoFilter ref="A1:J134" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J137" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A1:J137" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J134">
     <sortCondition ref="A1:A134"/>
   </sortState>
@@ -2335,10 +2370,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J134"/>
+  <dimension ref="A1:J137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="J140" sqref="J140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6641,6 +6676,66 @@
       </c>
       <c r="J134" s="10" t="s">
         <v>234</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="3"/>
+      <c r="B135" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="F135" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G135" s="19">
+        <v>5.8</v>
+      </c>
+      <c r="H135" s="20">
+        <v>37</v>
+      </c>
+      <c r="J135" s="21" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="3"/>
+      <c r="B136" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="F136" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G136" s="19">
+        <v>6.1</v>
+      </c>
+      <c r="H136" s="20">
+        <v>40</v>
+      </c>
+      <c r="J136" s="22" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="3"/>
+      <c r="B137" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="F137" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G137" s="19">
+        <v>5.6</v>
+      </c>
+      <c r="H137" s="20">
+        <v>39</v>
+      </c>
+      <c r="J137" s="23" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -7537,7 +7632,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/data/Saslaw_et_al_2024.xlsx
+++ b/data/Saslaw_et_al_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ydmag\Google Drive\AMNH\Turkana Water\TurkanaWatersBM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D324AC7C-DA86-48F9-AE23-56972B5479BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F85569-C57D-48AA-9532-3382871C44DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10605" windowWidth="29040" windowHeight="17640" xr2:uid="{2CB7BEBC-1D16-D04D-9FBD-10B6CFE25871}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2CB7BEBC-1D16-D04D-9FBD-10B6CFE25871}"/>
   </bookViews>
   <sheets>
     <sheet name="TableS1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="282">
   <si>
     <t>Date</t>
   </si>
@@ -897,6 +897,12 @@
   </si>
   <si>
     <t>Cerling et al. 1988</t>
+  </si>
+  <si>
+    <t>Levin_JGR_KN07W-403</t>
+  </si>
+  <si>
+    <t>Originally described as tap water, but tap water at Koobi Fora base camp is from the lake</t>
   </si>
 </sst>
 </file>
@@ -1443,7 +1449,7 @@
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1492,10 +1498,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="42" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2016,8 +2020,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J137" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
-  <autoFilter ref="A1:J137" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J138" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A1:J138" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J134">
     <sortCondition ref="A1:A134"/>
   </sortState>
@@ -2370,10 +2374,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J137"/>
+  <dimension ref="A1:J138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="J140" sqref="J140"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="I141" sqref="I141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6691,10 +6695,10 @@
       <c r="G135" s="19">
         <v>5.8</v>
       </c>
-      <c r="H135" s="20">
+      <c r="H135" s="19">
         <v>37</v>
       </c>
-      <c r="J135" s="21" t="s">
+      <c r="J135" s="20" t="s">
         <v>279</v>
       </c>
     </row>
@@ -6711,10 +6715,10 @@
       <c r="G136" s="19">
         <v>6.1</v>
       </c>
-      <c r="H136" s="20">
+      <c r="H136" s="19">
         <v>40</v>
       </c>
-      <c r="J136" s="22" t="s">
+      <c r="J136" s="20" t="s">
         <v>279</v>
       </c>
     </row>
@@ -6731,11 +6735,40 @@
       <c r="G137" s="19">
         <v>5.6</v>
       </c>
-      <c r="H137" s="20">
+      <c r="H137" s="19">
         <v>39</v>
       </c>
-      <c r="J137" s="23" t="s">
+      <c r="J137" s="20" t="s">
         <v>279</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>280</v>
+      </c>
+      <c r="B138" s="21">
+        <v>39097</v>
+      </c>
+      <c r="C138">
+        <v>3.95</v>
+      </c>
+      <c r="D138">
+        <v>36.18</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G138">
+        <v>5.7</v>
+      </c>
+      <c r="H138" s="16">
+        <v>40.1</v>
+      </c>
+      <c r="J138" s="8" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
